--- a/data/cv_entries.xlsx
+++ b/data/cv_entries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/Resume/wright_cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E3991D-5116-0A4B-836C-D2FE27A4AAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33986FFB-01E3-EE4D-9DB4-07FEB38C50D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="500" windowWidth="27640" windowHeight="15660" xr2:uid="{C4D43CE4-6AA2-144D-A346-CE8B2E756935}"/>
+    <workbookView xWindow="-19860" yWindow="-18000" windowWidth="27640" windowHeight="15660" xr2:uid="{C4D43CE4-6AA2-144D-A346-CE8B2E756935}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="70">
   <si>
     <t>type</t>
   </si>
@@ -93,9 +93,6 @@
     <t>University of Illinois at Urbana-Champaign</t>
   </si>
   <si>
-    <t xml:space="preserve">Provide clinical supervison to Master's students in the Communication Disorders and Sciences program, primarily for treatment sessions in the School-Age Clinic and the Brain Injury and Concussion Clinic </t>
-  </si>
-  <si>
     <t xml:space="preserve">history </t>
   </si>
   <si>
@@ -138,9 +135,6 @@
     <t xml:space="preserve">student_service </t>
   </si>
   <si>
-    <t xml:space="preserve">Data Consultant </t>
-  </si>
-  <si>
     <t xml:space="preserve">Hawaii Concussion Awareness and Management Program (HCAMP) </t>
   </si>
   <si>
@@ -156,21 +150,9 @@
     <t xml:space="preserve">Responsible for development of the clinic term schedule, recruitment of clients, development of assessment materials to measure student outcome, and the development of a treatment protocol for adolescents with prolonged concussion symptoms </t>
   </si>
   <si>
-    <t xml:space="preserve">Research Assistant </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eugene Youth Concussion Management Team </t>
-  </si>
-  <si>
-    <t>Assisted in the development of system for client data tracking and provided clinical supervision to clients treated in the BrICC</t>
-  </si>
-  <si>
     <t>Co-director, Brain Injury and Concussion Clinic (BrICC)</t>
   </si>
   <si>
-    <t>https://jim-wright90.github.io/cmt_plots/</t>
-  </si>
-  <si>
     <t>professional_affiliation</t>
   </si>
   <si>
@@ -183,9 +165,6 @@
     <t>certification_licensure</t>
   </si>
   <si>
-    <t xml:space="preserve">License in Speech-Langauge Pathology </t>
-  </si>
-  <si>
     <t>State of Oregon</t>
   </si>
   <si>
@@ -238,16 +217,51 @@
   </si>
   <si>
     <t>Course instructor for CDS 663: *Management of Acquired Cognitive Disorders*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">student_research </t>
+  </si>
+  <si>
+    <t>Assisted Dr. Torrey Loucks in the collection, analysis, and interpretation of data from speech samples pertaining to the effects of delayed auditory feedback (DAF) on fluent speakers and speakers who stutter</t>
+  </si>
+  <si>
+    <t>Teaching assistant for SHS 410: *Stuttering: Theory &amp; Practice*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research assistant, NeuroSpeech Laboratory </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Academic advisor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">License in Speech-Language Pathology </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide clinical supervision to Master's students in the Communication Disorders and Sciences program, primarily for treatment sessions in the School-Age Clinic and the Brain Injury and Concussion Clinic </t>
+  </si>
+  <si>
+    <t>Advised incoming freshmen students on the selection of courses for their first term enrolled in the Department of Communication Disorders &amp; Sciences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data consultant </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -270,16 +284,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -592,9 +611,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8559F42B-99AA-F44B-B1DC-6C413C767572}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -708,12 +727,12 @@
         <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1">
         <v>2016</v>
@@ -722,13 +741,13 @@
         <v>2017</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -742,18 +761,18 @@
         <v>2017</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1">
         <v>2015</v>
@@ -762,13 +781,13 @@
         <v>2016</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="119" x14ac:dyDescent="0.2">
@@ -782,13 +801,13 @@
         <v>2015</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="136" x14ac:dyDescent="0.2">
@@ -802,115 +821,118 @@
         <v>2014</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="204" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B12" s="1">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C12" s="1">
         <v>2021</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="221" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B13" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C13" s="1">
         <v>2021</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="187" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B14" s="1">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="C14" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1">
         <v>2021</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="204" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2020</v>
       </c>
       <c r="C15" s="1">
         <v>2021</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>34</v>
+      <c r="D15" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="221" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C16" s="1">
         <v>2021</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1">
         <v>2018</v>
@@ -919,143 +941,199 @@
         <v>2021</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1">
-        <v>2015</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>46</v>
+        <v>2014</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2014</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="221" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B19" s="1">
-        <v>2017</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>15</v>
+        <v>2018</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2021</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="136" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B20" s="1">
-        <v>2015</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>15</v>
+        <v>2018</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2019</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B21" s="1">
         <v>2015</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B22" s="1">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B23" s="1">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="1">
+        <v>42</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="136" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="1">
         <v>2019</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="272" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="1">
+      <c r="D27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="272" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="1">
         <v>2019</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>61</v>
+      <c r="D28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F12" r:id="rId1" xr:uid="{9FC96BBB-E6A2-B445-A8BC-D5C33750B0BD}"/>
+    <hyperlink ref="G15" r:id="rId2" xr:uid="{67F88AC2-2CFE-FA4A-92CE-3F4ED8A9D293}"/>
+    <hyperlink ref="D15" r:id="rId3" xr:uid="{67C34580-503B-904D-B129-0E6417699D1E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/cv_entries.xlsx
+++ b/data/cv_entries.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/Resume/wright_cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33986FFB-01E3-EE4D-9DB4-07FEB38C50D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068CC15E-284E-B84F-A62D-6C4290B3B377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19860" yWindow="-18000" windowWidth="27640" windowHeight="15660" xr2:uid="{C4D43CE4-6AA2-144D-A346-CE8B2E756935}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="76">
   <si>
     <t>type</t>
   </si>
@@ -244,6 +244,24 @@
   </si>
   <si>
     <t xml:space="preserve">Data consultant </t>
+  </si>
+  <si>
+    <t>teaching</t>
+  </si>
+  <si>
+    <t>Course instructor for CDS 431: *Beginning Clinical Methods*</t>
+  </si>
+  <si>
+    <t>https://jim-wright90.github.io/cds431_sp22/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research Associate </t>
+  </si>
+  <si>
+    <t>Marzano Research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support multiple aspects of research and evaluation projects designed to inform educational improvement through the provision of technical support and communication of findings </t>
   </si>
 </sst>
 </file>
@@ -611,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8559F42B-99AA-F44B-B1DC-6C413C767572}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -715,47 +733,47 @@
         <v>14</v>
       </c>
       <c r="B6" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="170" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2016</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2017</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C8" s="1">
         <v>2017</v>
@@ -764,53 +782,53 @@
         <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1">
         <v>2015</v>
       </c>
       <c r="C9" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C10" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -818,155 +836,161 @@
         <v>2014</v>
       </c>
       <c r="C11" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
         <v>2014</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="C12" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="204" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2021</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="221" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="204" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B13" s="1">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="C13" s="1">
         <v>2021</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="187" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="221" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B14" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="187" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="1">
         <v>2013</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C15" s="1">
         <v>2014</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2021</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="B16" s="1">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="C16" s="1">
-        <v>2021</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>30</v>
+        <v>2022</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G16" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="B17" s="1">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="C17" s="1">
         <v>2021</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>31</v>
+      <c r="D17" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G17" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="1">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="C18" s="1">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="221" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B19" s="1">
         <v>2018</v>
@@ -975,164 +999,200 @@
         <v>2021</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="221" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="136" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+    <row r="22" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B22" s="1">
         <v>2018</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C22" s="1">
         <v>2019</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+    <row r="23" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B21" s="1">
-        <v>2015</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="1">
-        <v>2017</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="B23" s="1">
         <v>2015</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B24" s="1">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B26" s="1">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="136" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+    <row r="29" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C29" s="1">
         <v>2019</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="272" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+    <row r="30" spans="1:7" ht="272" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C30" s="1">
         <v>2019</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F12" r:id="rId1" xr:uid="{9FC96BBB-E6A2-B445-A8BC-D5C33750B0BD}"/>
-    <hyperlink ref="G15" r:id="rId2" xr:uid="{67F88AC2-2CFE-FA4A-92CE-3F4ED8A9D293}"/>
-    <hyperlink ref="D15" r:id="rId3" xr:uid="{67C34580-503B-904D-B129-0E6417699D1E}"/>
+    <hyperlink ref="F13" r:id="rId1" xr:uid="{9FC96BBB-E6A2-B445-A8BC-D5C33750B0BD}"/>
+    <hyperlink ref="G17" r:id="rId2" xr:uid="{67F88AC2-2CFE-FA4A-92CE-3F4ED8A9D293}"/>
+    <hyperlink ref="D17" r:id="rId3" xr:uid="{67C34580-503B-904D-B129-0E6417699D1E}"/>
+    <hyperlink ref="G16" r:id="rId4" xr:uid="{A592B2D5-64F7-D24F-B190-D84D29F1718E}"/>
+    <hyperlink ref="D16" r:id="rId5" xr:uid="{D42F41A6-5D73-B344-9F8A-BD6292306C55}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/cv_entries.xlsx
+++ b/data/cv_entries.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/Resume/wright_cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068CC15E-284E-B84F-A62D-6C4290B3B377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3BCFC8-3852-B345-B45E-F83AD1EEA916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19860" yWindow="-18000" windowWidth="27640" windowHeight="15660" xr2:uid="{C4D43CE4-6AA2-144D-A346-CE8B2E756935}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="79">
   <si>
     <t>type</t>
   </si>
@@ -261,7 +261,16 @@
     <t>Marzano Research</t>
   </si>
   <si>
-    <t xml:space="preserve">Support multiple aspects of research and evaluation projects designed to inform educational improvement through the provision of technical support and communication of findings </t>
+    <t>What Works Clearinghouse</t>
+  </si>
+  <si>
+    <t>Certified reviewer single-case experimental design research studies</t>
+  </si>
+  <si>
+    <t>Certified reviewer group design research studies</t>
+  </si>
+  <si>
+    <t>Support multiple aspects of research and evaluation projects designed to inform educational improvement through the provision of technical support and communication of findings</t>
   </si>
 </sst>
 </file>
@@ -629,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8559F42B-99AA-F44B-B1DC-6C413C767572}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -745,7 +754,7 @@
         <v>74</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="170" x14ac:dyDescent="0.2">
@@ -1076,113 +1085,147 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B24" s="1">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B25" s="1">
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B26" s="1">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B27" s="1">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B28" s="1">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="136" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+    <row r="31" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C31" s="1">
         <v>2019</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="272" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+    <row r="32" spans="1:7" ht="272" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C32" s="1">
         <v>2019</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>54</v>
       </c>
     </row>

--- a/data/cv_entries.xlsx
+++ b/data/cv_entries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/Resume/wright_cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3BCFC8-3852-B345-B45E-F83AD1EEA916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47912172-2051-B34E-BCC0-C74E0E470A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19860" yWindow="-18000" windowWidth="27640" windowHeight="15660" xr2:uid="{C4D43CE4-6AA2-144D-A346-CE8B2E756935}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{C4D43CE4-6AA2-144D-A346-CE8B2E756935}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="81">
   <si>
     <t>type</t>
   </si>
@@ -255,9 +255,6 @@
     <t>https://jim-wright90.github.io/cds431_sp22/</t>
   </si>
   <si>
-    <t xml:space="preserve">Research Associate </t>
-  </si>
-  <si>
     <t>Marzano Research</t>
   </si>
   <si>
@@ -270,7 +267,16 @@
     <t>Certified reviewer group design research studies</t>
   </si>
   <si>
-    <t>Support multiple aspects of research and evaluation projects designed to inform educational improvement through the provision of technical support and communication of findings</t>
+    <t xml:space="preserve">Researcher </t>
+  </si>
+  <si>
+    <t>Rsearch Associate</t>
+  </si>
+  <si>
+    <t>Support and lead multiple aspects of research and evaluation studies and technical assistance projects via data collection, management, and analysis as well as meeting facilitation and report writing</t>
+  </si>
+  <si>
+    <t>Support multiple aspects of research and evaluation studies designed to inform educational improvement through the provision of technical support and communication of findings</t>
   </si>
 </sst>
 </file>
@@ -342,7 +348,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -630,7 +636,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -638,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8559F42B-99AA-F44B-B1DC-6C413C767572}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -742,19 +748,19 @@
         <v>14</v>
       </c>
       <c r="B6" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="170" x14ac:dyDescent="0.2">
@@ -762,47 +768,47 @@
         <v>14</v>
       </c>
       <c r="B7" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2022</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="170" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1">
         <v>2021</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2016</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2017</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C9" s="1">
         <v>2017</v>
@@ -811,53 +817,53 @@
         <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1">
         <v>2015</v>
       </c>
       <c r="C10" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C11" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -865,150 +871,153 @@
         <v>2014</v>
       </c>
       <c r="C12" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
         <v>2014</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="C13" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="204" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2021</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="221" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="204" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B14" s="1">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="C14" s="1">
         <v>2021</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="187" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="221" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="187" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="1">
         <v>2013</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C16" s="1">
         <v>2014</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="1">
-        <v>2022</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2022</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B17" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C17" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="B18" s="1">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="C18" s="1">
         <v>2021</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>30</v>
+      <c r="D18" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G18" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="1">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C19" s="1">
         <v>2021</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>17</v>
@@ -1019,39 +1028,36 @@
         <v>28</v>
       </c>
       <c r="B20" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1">
         <v>2014</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C21" s="1">
         <v>2014</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="221" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C21" s="1">
-        <v>2021</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="221" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
@@ -1059,50 +1065,53 @@
         <v>2018</v>
       </c>
       <c r="C22" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C23" s="1">
         <v>2019</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="119" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B24" s="1">
         <v>2015</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="1">
-        <v>2022</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
@@ -1116,24 +1125,24 @@
         <v>76</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B26" s="1">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -1141,7 +1150,7 @@
         <v>42</v>
       </c>
       <c r="B27" s="1">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>15</v>
@@ -1150,10 +1159,10 @@
         <v>66</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
@@ -1164,24 +1173,27 @@
         <v>15</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B29" s="1">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -1189,33 +1201,33 @@
         <v>47</v>
       </c>
       <c r="B30" s="1">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="136" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="1">
-        <v>2019</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="272" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="136" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>50</v>
       </c>
@@ -1223,19 +1235,33 @@
         <v>2019</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="272" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F13" r:id="rId1" xr:uid="{9FC96BBB-E6A2-B445-A8BC-D5C33750B0BD}"/>
-    <hyperlink ref="G17" r:id="rId2" xr:uid="{67F88AC2-2CFE-FA4A-92CE-3F4ED8A9D293}"/>
-    <hyperlink ref="D17" r:id="rId3" xr:uid="{67C34580-503B-904D-B129-0E6417699D1E}"/>
-    <hyperlink ref="G16" r:id="rId4" xr:uid="{A592B2D5-64F7-D24F-B190-D84D29F1718E}"/>
-    <hyperlink ref="D16" r:id="rId5" xr:uid="{D42F41A6-5D73-B344-9F8A-BD6292306C55}"/>
+    <hyperlink ref="F14" r:id="rId1" xr:uid="{9FC96BBB-E6A2-B445-A8BC-D5C33750B0BD}"/>
+    <hyperlink ref="G18" r:id="rId2" xr:uid="{67F88AC2-2CFE-FA4A-92CE-3F4ED8A9D293}"/>
+    <hyperlink ref="D18" r:id="rId3" xr:uid="{67C34580-503B-904D-B129-0E6417699D1E}"/>
+    <hyperlink ref="G17" r:id="rId4" xr:uid="{A592B2D5-64F7-D24F-B190-D84D29F1718E}"/>
+    <hyperlink ref="D17" r:id="rId5" xr:uid="{D42F41A6-5D73-B344-9F8A-BD6292306C55}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/cv_entries.xlsx
+++ b/data/cv_entries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/Resume/wright_cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47912172-2051-B34E-BCC0-C74E0E470A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA065E2-9B77-B640-AC61-2560AD824A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{C4D43CE4-6AA2-144D-A346-CE8B2E756935}"/>
   </bookViews>
@@ -270,13 +270,13 @@
     <t xml:space="preserve">Researcher </t>
   </si>
   <si>
-    <t>Rsearch Associate</t>
-  </si>
-  <si>
     <t>Support and lead multiple aspects of research and evaluation studies and technical assistance projects via data collection, management, and analysis as well as meeting facilitation and report writing</t>
   </si>
   <si>
     <t>Support multiple aspects of research and evaluation studies designed to inform educational improvement through the provision of technical support and communication of findings</t>
+  </si>
+  <si>
+    <t>Research Associate</t>
   </si>
 </sst>
 </file>
@@ -647,7 +647,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -760,7 +760,7 @@
         <v>73</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="170" x14ac:dyDescent="0.2">
@@ -771,16 +771,16 @@
         <v>2022</v>
       </c>
       <c r="C7" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="170" x14ac:dyDescent="0.2">

--- a/data/cv_entries.xlsx
+++ b/data/cv_entries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/Resume/wright_cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA065E2-9B77-B640-AC61-2560AD824A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCB097B-806B-754D-985A-1618D093FE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{C4D43CE4-6AA2-144D-A346-CE8B2E756935}"/>
+    <workbookView xWindow="-25780" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{C4D43CE4-6AA2-144D-A346-CE8B2E756935}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -348,7 +348,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -636,7 +636,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -646,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8559F42B-99AA-F44B-B1DC-6C413C767572}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -768,19 +768,19 @@
         <v>14</v>
       </c>
       <c r="B7" s="1">
-        <v>2022</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2023</v>
+        <v>2021</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="170" x14ac:dyDescent="0.2">
@@ -788,19 +788,19 @@
         <v>14</v>
       </c>
       <c r="B8" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>2022</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2023</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="102" x14ac:dyDescent="0.2">

--- a/data/cv_entries.xlsx
+++ b/data/cv_entries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/Resume/wright_cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCB097B-806B-754D-985A-1618D093FE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53B60CD-DA88-E74D-9B4C-CEF3B1C4B414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25780" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{C4D43CE4-6AA2-144D-A346-CE8B2E756935}"/>
   </bookViews>
@@ -646,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8559F42B-99AA-F44B-B1DC-6C413C767572}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/cv_entries.xlsx
+++ b/data/cv_entries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/Resume/wright_cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53B60CD-DA88-E74D-9B4C-CEF3B1C4B414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA639ED-336B-FB49-BFE9-451D6A43A569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25780" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{C4D43CE4-6AA2-144D-A346-CE8B2E756935}"/>
+    <workbookView xWindow="12620" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{C4D43CE4-6AA2-144D-A346-CE8B2E756935}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="88">
   <si>
     <t>type</t>
   </si>
@@ -277,6 +277,27 @@
   </si>
   <si>
     <t>Research Associate</t>
+  </si>
+  <si>
+    <t>programming_skill</t>
+  </si>
+  <si>
+    <t>Microsoft Office</t>
+  </si>
+  <si>
+    <t>SPSS</t>
+  </si>
+  <si>
+    <t>Qualtrics</t>
+  </si>
+  <si>
+    <t>R and Rstudio</t>
+  </si>
+  <si>
+    <t>MAXQDA</t>
+  </si>
+  <si>
+    <t>Tableau</t>
   </si>
 </sst>
 </file>
@@ -644,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8559F42B-99AA-F44B-B1DC-6C413C767572}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1253,6 +1274,90 @@
       </c>
       <c r="F33" s="1" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2010</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/cv_entries.xlsx
+++ b/data/cv_entries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/Resume/wright_cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA639ED-336B-FB49-BFE9-451D6A43A569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D38B476-5714-EA45-ABB3-C9B8B75A84BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12620" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{C4D43CE4-6AA2-144D-A346-CE8B2E756935}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{C4D43CE4-6AA2-144D-A346-CE8B2E756935}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="112">
   <si>
     <t>type</t>
   </si>
@@ -298,6 +298,78 @@
   </si>
   <si>
     <t>Tableau</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>Brookings, SD School District Special Education Program Review</t>
+  </si>
+  <si>
+    <t>Prepared scope of work that secured $82,500 contract to review the Brookings, South Dakota school district’s special education programming with a specific emphasis on evaluating staffing needs and environmental conditions that facilitate negative and troublesome behaviors.</t>
+  </si>
+  <si>
+    <t>Success Ready Students Missouri – Learner Centered Assessments</t>
+  </si>
+  <si>
+    <t>Wyoming Building in Literacy Together (WYBILT)</t>
+  </si>
+  <si>
+    <t>‘Imi Pono Hawai’i Wellbeing Survey</t>
+  </si>
+  <si>
+    <t>South Carolina Teacher as Researcher</t>
+  </si>
+  <si>
+    <t>Wyoming Digital Learning Plan</t>
+  </si>
+  <si>
+    <t>Evaluation of South Dakota’s Rethink Education Model Grant</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>Project Lead</t>
+  </si>
+  <si>
+    <t>Data analysis</t>
+  </si>
+  <si>
+    <t>Responsible for data collection and analysis of program activities including survey administration and focus group facilitation.</t>
+  </si>
+  <si>
+    <t>Responsible for consulting with the Wyoming Department of Education to draft and finalize the 2023-2028 digital learning plan. Project activities included a landscape scan of national research on digital learning, data collection (e.g., focus groups, surveys), and facilitating the drafting and finalization of the plan with an advisory panel, consisting of stakeholders across the state of Wyoming.</t>
+  </si>
+  <si>
+    <t>Responsible for providing professional development sessions as a methodologist to assist participating teachers design and implement research studies within their classrooms. As a data analyst, responsible for the evaluation of exit survey data to inform and influence improvements to the professional learning series.</t>
+  </si>
+  <si>
+    <t>Professional development facilitator and data analysis</t>
+  </si>
+  <si>
+    <t>Responsible for survey development and analysis of the annual ‘Imi Pono Hawai’i Wellbeing Survey. Primary role includes the development of a dashboard to communicate findings.</t>
+  </si>
+  <si>
+    <t>Leads the WYBILT project, a series of comprehensive literacy state development grants in 25 Wyoming school districts. Responsible for consultation with the Wyoming Department of Education, overseeing data collection, analysis, and communication of findings.</t>
+  </si>
+  <si>
+    <t>Responsible for data wrangling and analysis of district state assessment and interim assessments to compare proficiency ratings between the type of assessment. A primary responsibility has been the development of a dashboard to communicate test results and effect size comparisons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">project </t>
+  </si>
+  <si>
+    <t>Wyoming Accountability Study</t>
+  </si>
+  <si>
+    <t>Responsible for data collection and analysis through survey administration and focus group facilitation. Also supported the identification of positive outlier schools through analysis of school proficiency ratings.</t>
+  </si>
+  <si>
+    <t>https://marzanoresearch.shinyapps.io/all_districts/</t>
+  </si>
+  <si>
+    <t>https://marzanoresearch.shinyapps.io/ks_version4/</t>
   </si>
 </sst>
 </file>
@@ -665,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8559F42B-99AA-F44B-B1DC-6C413C767572}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -676,7 +748,7 @@
     <col min="1" max="16384" width="20.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -701,8 +773,11 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+      <c r="I1" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -719,7 +794,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -730,7 +805,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -747,7 +822,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -764,7 +839,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="170" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="170" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -784,7 +859,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="170" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="170" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -804,7 +879,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="170" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="170" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -824,7 +899,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -844,7 +919,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -864,7 +939,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -884,7 +959,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -904,7 +979,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -924,7 +999,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="204" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="204" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>61</v>
       </c>
@@ -947,7 +1022,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="221" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="221" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
@@ -967,7 +1042,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="187" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="187" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>61</v>
       </c>
@@ -1262,7 +1337,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="272" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="272" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>50</v>
       </c>
@@ -1276,7 +1351,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>81</v>
       </c>
@@ -1290,7 +1365,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>81</v>
       </c>
@@ -1304,7 +1379,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>81</v>
       </c>
@@ -1318,7 +1393,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>81</v>
       </c>
@@ -1332,7 +1407,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>81</v>
       </c>
@@ -1346,7 +1421,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>81</v>
       </c>
@@ -1358,6 +1433,196 @@
       </c>
       <c r="D39" s="1" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="238" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="255" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="187" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="238" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="153" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="272" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="323" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2023</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2023</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/data/cv_entries.xlsx
+++ b/data/cv_entries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/Resume/wright_cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D38B476-5714-EA45-ABB3-C9B8B75A84BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C07CF7-ED4D-3E4E-BF37-3EBCC8AF1A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{C4D43CE4-6AA2-144D-A346-CE8B2E756935}"/>
   </bookViews>
@@ -312,9 +312,6 @@
     <t>Success Ready Students Missouri – Learner Centered Assessments</t>
   </si>
   <si>
-    <t>Wyoming Building in Literacy Together (WYBILT)</t>
-  </si>
-  <si>
     <t>‘Imi Pono Hawai’i Wellbeing Survey</t>
   </si>
   <si>
@@ -370,6 +367,9 @@
   </si>
   <si>
     <t>https://marzanoresearch.shinyapps.io/ks_version4/</t>
+  </si>
+  <si>
+    <t>Wyoming Believing in Literacy Together (WY BILT)</t>
   </si>
 </sst>
 </file>
@@ -740,7 +740,7 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -774,7 +774,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="102" x14ac:dyDescent="0.2">
@@ -1455,7 +1455,7 @@
         <v>90</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="255" x14ac:dyDescent="0.2">
@@ -1475,18 +1475,18 @@
         <v>73</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="187" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B42" s="1">
         <v>2022</v>
@@ -1495,16 +1495,16 @@
         <v>15</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="238" x14ac:dyDescent="0.2">
@@ -1518,16 +1518,16 @@
         <v>15</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="153" x14ac:dyDescent="0.2">
@@ -1541,19 +1541,19 @@
         <v>15</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="272" x14ac:dyDescent="0.2">
@@ -1567,16 +1567,16 @@
         <v>15</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F45" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I45" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="323" x14ac:dyDescent="0.2">
@@ -1590,16 +1590,16 @@
         <v>2023</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="102" x14ac:dyDescent="0.2">
@@ -1613,16 +1613,16 @@
         <v>2023</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/data/cv_entries.xlsx
+++ b/data/cv_entries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/Resume/wright_cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C07CF7-ED4D-3E4E-BF37-3EBCC8AF1A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37C09E3-9329-4F44-8724-7D7E541119C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{C4D43CE4-6AA2-144D-A346-CE8B2E756935}"/>
+    <workbookView xWindow="-21900" yWindow="-20560" windowWidth="28800" windowHeight="16320" xr2:uid="{C4D43CE4-6AA2-144D-A346-CE8B2E756935}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="115">
   <si>
     <t>type</t>
   </si>
@@ -339,9 +339,6 @@
     <t>Responsible for consulting with the Wyoming Department of Education to draft and finalize the 2023-2028 digital learning plan. Project activities included a landscape scan of national research on digital learning, data collection (e.g., focus groups, surveys), and facilitating the drafting and finalization of the plan with an advisory panel, consisting of stakeholders across the state of Wyoming.</t>
   </si>
   <si>
-    <t>Responsible for providing professional development sessions as a methodologist to assist participating teachers design and implement research studies within their classrooms. As a data analyst, responsible for the evaluation of exit survey data to inform and influence improvements to the professional learning series.</t>
-  </si>
-  <si>
     <t>Professional development facilitator and data analysis</t>
   </si>
   <si>
@@ -370,6 +367,18 @@
   </si>
   <si>
     <t>Wyoming Believing in Literacy Together (WY BILT)</t>
+  </si>
+  <si>
+    <t>Responsible for providing professional development sessions as a methodologist to assist participating teachers design and implement research studies within their classrooms. As a data analyst, responsible for the evaluation and communication of exit survey data to inform and influence improvements to the professional learning series.</t>
+  </si>
+  <si>
+    <t>https://marzanoresearch.shinyapps.io/cohort1_exit_survey/</t>
+  </si>
+  <si>
+    <t>https://marzanoresearch.shinyapps.io/wy_bilt_v2/</t>
+  </si>
+  <si>
+    <t>https://marzanoresearch.shinyapps.io/wy_act_school_movement/</t>
   </si>
 </sst>
 </file>
@@ -739,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8559F42B-99AA-F44B-B1DC-6C413C767572}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1475,10 +1484,10 @@
         <v>73</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>98</v>
@@ -1486,7 +1495,7 @@
     </row>
     <row r="42" spans="1:9" ht="187" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B42" s="1">
         <v>2022</v>
@@ -1495,13 +1504,16 @@
         <v>15</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>98</v>
@@ -1518,13 +1530,16 @@
         <v>15</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>97</v>
@@ -1547,16 +1562,16 @@
         <v>73</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="272" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="289" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
@@ -1573,10 +1588,13 @@
         <v>73</v>
       </c>
       <c r="F45" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I45" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="323" x14ac:dyDescent="0.2">

--- a/data/cv_entries.xlsx
+++ b/data/cv_entries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/Resume/wright_cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37C09E3-9329-4F44-8724-7D7E541119C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0A09A6-55FC-344D-9D01-1FA9FF796E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21900" yWindow="-20560" windowWidth="28800" windowHeight="16320" xr2:uid="{C4D43CE4-6AA2-144D-A346-CE8B2E756935}"/>
+    <workbookView xWindow="16080" yWindow="-20380" windowWidth="28800" windowHeight="16320" xr2:uid="{C4D43CE4-6AA2-144D-A346-CE8B2E756935}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="117">
   <si>
     <t>type</t>
   </si>
@@ -379,6 +379,12 @@
   </si>
   <si>
     <t>https://marzanoresearch.shinyapps.io/wy_act_school_movement/</t>
+  </si>
+  <si>
+    <t>Rapid City, SD Area Schools Special Education Program Review</t>
+  </si>
+  <si>
+    <t>Prepared scope of work that secured $95,000 contract to review the Rapid City, South Dakota Area Schools’ special education program with a specific emphasis on service compliance, staffing needs, and eligibility determination.</t>
   </si>
 </sst>
 </file>
@@ -746,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8559F42B-99AA-F44B-B1DC-6C413C767572}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1444,7 +1450,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="238" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="187" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>88</v>
       </c>
@@ -1455,19 +1461,19 @@
         <v>15</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="255" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="238" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>88</v>
       </c>
@@ -1478,50 +1484,47 @@
         <v>15</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="187" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="255" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B42" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="238" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="187" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B43" s="1">
         <v>2022</v>
@@ -1530,22 +1533,22 @@
         <v>15</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="153" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="238" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>88</v>
       </c>
@@ -1556,22 +1559,22 @@
         <v>15</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="289" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="153" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
@@ -1582,45 +1585,48 @@
         <v>15</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="323" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="289" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B46" s="1">
         <v>2022</v>
       </c>
-      <c r="C46" s="1">
-        <v>2023</v>
+      <c r="C46" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>100</v>
+        <v>111</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="323" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>88</v>
       </c>
@@ -1631,15 +1637,38 @@
         <v>2023</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F47" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2023</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="I48" s="1" t="s">
         <v>98</v>
       </c>
     </row>

--- a/data/cv_entries.xlsx
+++ b/data/cv_entries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/Resume/wright_cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0A09A6-55FC-344D-9D01-1FA9FF796E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280122D9-31D9-B543-A3CD-367B29177714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16080" yWindow="-20380" windowWidth="28800" windowHeight="16320" xr2:uid="{C4D43CE4-6AA2-144D-A346-CE8B2E756935}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{C4D43CE4-6AA2-144D-A346-CE8B2E756935}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="120">
   <si>
     <t>type</t>
   </si>
@@ -270,12 +270,6 @@
     <t xml:space="preserve">Researcher </t>
   </si>
   <si>
-    <t>Support and lead multiple aspects of research and evaluation studies and technical assistance projects via data collection, management, and analysis as well as meeting facilitation and report writing</t>
-  </si>
-  <si>
-    <t>Support multiple aspects of research and evaluation studies designed to inform educational improvement through the provision of technical support and communication of findings</t>
-  </si>
-  <si>
     <t>Research Associate</t>
   </si>
   <si>
@@ -385,6 +379,21 @@
   </si>
   <si>
     <t>Prepared scope of work that secured $95,000 contract to review the Rapid City, South Dakota Area Schools’ special education program with a specific emphasis on service compliance, staffing needs, and eligibility determination.</t>
+  </si>
+  <si>
+    <t>Senior Research Analyst</t>
+  </si>
+  <si>
+    <t>Applied Survey Research</t>
+  </si>
+  <si>
+    <t>Assist in the design and implementation of community-based research, evaluation, assessment, and strategic planning projects via survey development, data cleaning, data analysis and report writing</t>
+  </si>
+  <si>
+    <t>Support multiple aspects of education research and evaluation studies designed to inform educational improvement through the provision of technical support and communication of findings</t>
+  </si>
+  <si>
+    <t>Support and lead multiple aspects of education research and evaluation studies and technical assistance projects via data collection, management, and analysis as well as meeting facilitation and report writing</t>
   </si>
 </sst>
 </file>
@@ -752,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8559F42B-99AA-F44B-B1DC-6C413C767572}">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -789,7 +798,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="102" x14ac:dyDescent="0.2">
@@ -859,39 +868,39 @@
         <v>14</v>
       </c>
       <c r="B6" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="170" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="187" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>2023</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2024</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="170" x14ac:dyDescent="0.2">
@@ -899,47 +908,47 @@
         <v>14</v>
       </c>
       <c r="B8" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C8" s="1">
         <v>2023</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="170" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2023</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="102" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2016</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2017</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C10" s="1">
         <v>2017</v>
@@ -948,53 +957,53 @@
         <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1">
         <v>2015</v>
       </c>
       <c r="C11" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="119" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C12" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="136" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1002,150 +1011,153 @@
         <v>2014</v>
       </c>
       <c r="C13" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="136" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
         <v>2014</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="C14" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="204" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2021</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="221" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="204" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="1">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="C15" s="1">
         <v>2021</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="187" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="221" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B16" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="187" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="1">
         <v>2013</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C17" s="1">
         <v>2014</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="1">
-        <v>2022</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2022</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B18" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C18" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="B19" s="1">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="C19" s="1">
         <v>2021</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>30</v>
+      <c r="D19" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G19" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="1">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C20" s="1">
         <v>2021</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>17</v>
@@ -1156,39 +1168,36 @@
         <v>28</v>
       </c>
       <c r="B21" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="1">
         <v>2014</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C22" s="1">
         <v>2014</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="221" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C22" s="1">
-        <v>2021</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="221" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
@@ -1196,50 +1205,53 @@
         <v>2018</v>
       </c>
       <c r="C23" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C24" s="1">
         <v>2019</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="119" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B25" s="1">
         <v>2015</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="1">
-        <v>2022</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
@@ -1250,27 +1262,27 @@
         <v>15</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B27" s="1">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -1278,7 +1290,7 @@
         <v>42</v>
       </c>
       <c r="B28" s="1">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>15</v>
@@ -1287,10 +1299,10 @@
         <v>66</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>42</v>
       </c>
@@ -1301,24 +1313,27 @@
         <v>15</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B30" s="1">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -1326,33 +1341,33 @@
         <v>47</v>
       </c>
       <c r="B31" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="1">
         <v>2017</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="C32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="136" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="1">
-        <v>2019</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="272" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>50</v>
       </c>
@@ -1360,99 +1375,99 @@
         <v>2019</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="272" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" s="1">
-        <v>2010</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B35" s="1">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B36" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B37" s="1">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B38" s="1">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B39" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="187" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B40" s="1">
         <v>2023</v>
@@ -1461,21 +1476,12 @@
         <v>15</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="238" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="187" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B41" s="1">
         <v>2023</v>
@@ -1484,21 +1490,21 @@
         <v>15</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="255" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="238" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B42" s="1">
         <v>2023</v>
@@ -1507,50 +1513,47 @@
         <v>15</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="187" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="255" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="B43" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="238" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="187" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="B44" s="1">
         <v>2022</v>
@@ -1559,24 +1562,24 @@
         <v>15</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="153" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="238" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B45" s="1">
         <v>2022</v>
@@ -1585,24 +1588,24 @@
         <v>15</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="289" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="153" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B46" s="1">
         <v>2022</v>
@@ -1611,47 +1614,50 @@
         <v>15</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="323" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="289" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B47" s="1">
         <v>2022</v>
       </c>
-      <c r="C47" s="1">
-        <v>2023</v>
+      <c r="C47" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="323" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B48" s="1">
         <v>2022</v>
@@ -1660,25 +1666,48 @@
         <v>2023</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2023</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F14" r:id="rId1" xr:uid="{9FC96BBB-E6A2-B445-A8BC-D5C33750B0BD}"/>
-    <hyperlink ref="G18" r:id="rId2" xr:uid="{67F88AC2-2CFE-FA4A-92CE-3F4ED8A9D293}"/>
-    <hyperlink ref="D18" r:id="rId3" xr:uid="{67C34580-503B-904D-B129-0E6417699D1E}"/>
-    <hyperlink ref="G17" r:id="rId4" xr:uid="{A592B2D5-64F7-D24F-B190-D84D29F1718E}"/>
-    <hyperlink ref="D17" r:id="rId5" xr:uid="{D42F41A6-5D73-B344-9F8A-BD6292306C55}"/>
+    <hyperlink ref="F15" r:id="rId1" xr:uid="{9FC96BBB-E6A2-B445-A8BC-D5C33750B0BD}"/>
+    <hyperlink ref="G19" r:id="rId2" xr:uid="{67F88AC2-2CFE-FA4A-92CE-3F4ED8A9D293}"/>
+    <hyperlink ref="D19" r:id="rId3" xr:uid="{67C34580-503B-904D-B129-0E6417699D1E}"/>
+    <hyperlink ref="G18" r:id="rId4" xr:uid="{A592B2D5-64F7-D24F-B190-D84D29F1718E}"/>
+    <hyperlink ref="D18" r:id="rId5" xr:uid="{D42F41A6-5D73-B344-9F8A-BD6292306C55}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/cv_entries.xlsx
+++ b/data/cv_entries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/Resume/wright_cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280122D9-31D9-B543-A3CD-367B29177714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78587022-A23A-C249-9B50-1583B72E4D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{C4D43CE4-6AA2-144D-A346-CE8B2E756935}"/>
+    <workbookView xWindow="-25780" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{C4D43CE4-6AA2-144D-A346-CE8B2E756935}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="120">
   <si>
     <t>type</t>
   </si>
@@ -763,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8559F42B-99AA-F44B-B1DC-6C413C767572}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1486,8 +1486,8 @@
       <c r="B41" s="1">
         <v>2023</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>15</v>
+      <c r="C41" s="1">
+        <v>2024</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>113</v>
@@ -1509,8 +1509,8 @@
       <c r="B42" s="1">
         <v>2023</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>15</v>
+      <c r="C42" s="1">
+        <v>2024</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>87</v>
@@ -1532,8 +1532,8 @@
       <c r="B43" s="1">
         <v>2023</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>15</v>
+      <c r="C43" s="1">
+        <v>2024</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>89</v>
@@ -1551,108 +1551,108 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="187" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="238" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B44" s="1">
         <v>2022</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>15</v>
+      <c r="C44" s="1">
+        <v>2024</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="238" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="153" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B45" s="1">
         <v>2022</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>15</v>
+      <c r="C45" s="1">
+        <v>2024</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="153" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="289" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B46" s="1">
         <v>2022</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>15</v>
+      <c r="C46" s="1">
+        <v>2024</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="289" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="187" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="B47" s="1">
         <v>2022</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>15</v>
+      <c r="C47" s="1">
+        <v>2023</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="323" x14ac:dyDescent="0.2">

--- a/data/cv_entries.xlsx
+++ b/data/cv_entries.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/Resume/wright_cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78587022-A23A-C249-9B50-1583B72E4D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898A46CE-AE36-F348-8968-237590554C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25780" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{C4D43CE4-6AA2-144D-A346-CE8B2E756935}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="122">
   <si>
     <t>type</t>
   </si>
@@ -394,6 +394,12 @@
   </si>
   <si>
     <t>Support and lead multiple aspects of education research and evaluation studies and technical assistance projects via data collection, management, and analysis as well as meeting facilitation and report writing</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translate high-level project goals into actionable work plans, ensuring that every phase moves forward smoothly and on schedule. Oversee project implementation, anticipating resource needs, troubleshooting challenges, and making strategic adjustments when necessary. Manage relationships with partners and stakeholders, ensuring their needs are met through clear communication and collaboration. Delegate effectively, solve problems proactively, and keep projects on track from start to finish. Focus on maintaining momentum, driving results, and continuously improving processes to deliver successful outcomes. </t>
   </si>
 </sst>
 </file>
@@ -465,9 +471,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -505,7 +511,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -611,7 +617,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -753,7 +759,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -761,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8559F42B-99AA-F44B-B1DC-6C413C767572}">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:XFD44"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -863,64 +869,64 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="170" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="1">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>116</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="187" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="170" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C7" s="1">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="170" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="187" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="1">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C8" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="170" x14ac:dyDescent="0.2">
@@ -928,47 +934,47 @@
         <v>14</v>
       </c>
       <c r="B9" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C9" s="1">
         <v>2023</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="170" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2023</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="102" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2016</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2017</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C11" s="1">
         <v>2017</v>
@@ -977,53 +983,53 @@
         <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1">
         <v>2015</v>
       </c>
       <c r="C12" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="119" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C13" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="136" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1031,150 +1037,153 @@
         <v>2014</v>
       </c>
       <c r="C14" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="136" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
         <v>2014</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="C15" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="204" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2021</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="221" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="204" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B16" s="1">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="C16" s="1">
         <v>2021</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="187" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="221" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B17" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="187" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="1">
         <v>2013</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C18" s="1">
         <v>2014</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="1">
-        <v>2022</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2022</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B19" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C19" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="B20" s="1">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="C20" s="1">
         <v>2021</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>30</v>
+      <c r="D20" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G20" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="1">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C21" s="1">
         <v>2021</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>17</v>
@@ -1185,39 +1194,36 @@
         <v>28</v>
       </c>
       <c r="B22" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="1">
         <v>2014</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C23" s="1">
         <v>2014</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="221" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C23" s="1">
-        <v>2021</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="221" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
@@ -1225,50 +1231,53 @@
         <v>2018</v>
       </c>
       <c r="C24" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C25" s="1">
         <v>2019</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="119" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B26" s="1">
         <v>2015</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="1">
-        <v>2022</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>42</v>
       </c>
@@ -1279,27 +1288,27 @@
         <v>15</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B28" s="1">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -1307,7 +1316,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="1">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>15</v>
@@ -1316,10 +1325,10 @@
         <v>66</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
@@ -1330,24 +1339,27 @@
         <v>15</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B31" s="1">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -1355,33 +1367,33 @@
         <v>47</v>
       </c>
       <c r="B32" s="1">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="136" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="1">
-        <v>2019</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="272" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>50</v>
       </c>
@@ -1389,24 +1401,24 @@
         <v>2019</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="272" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B35" s="1">
-        <v>2010</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -1414,13 +1426,13 @@
         <v>79</v>
       </c>
       <c r="B36" s="1">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -1428,13 +1440,13 @@
         <v>79</v>
       </c>
       <c r="B37" s="1">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -1442,13 +1454,13 @@
         <v>79</v>
       </c>
       <c r="B38" s="1">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -1456,13 +1468,13 @@
         <v>79</v>
       </c>
       <c r="B39" s="1">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -1470,39 +1482,30 @@
         <v>79</v>
       </c>
       <c r="B40" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="187" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B41" s="1">
         <v>2023</v>
       </c>
-      <c r="C41" s="1">
-        <v>2024</v>
+      <c r="C41" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="238" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="187" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>86</v>
       </c>
@@ -1513,19 +1516,19 @@
         <v>2024</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="255" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="238" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>86</v>
       </c>
@@ -1536,48 +1539,45 @@
         <v>2024</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="238" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="255" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B44" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C44" s="1">
         <v>2024</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="153" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="238" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>86</v>
       </c>
@@ -1588,22 +1588,22 @@
         <v>2024</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="289" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="153" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>86</v>
       </c>
@@ -1614,50 +1614,50 @@
         <v>2024</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="187" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="289" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B47" s="1">
         <v>2022</v>
       </c>
       <c r="C47" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="323" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="187" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="B48" s="1">
         <v>2022</v>
@@ -1666,19 +1666,22 @@
         <v>2023</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="323" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>86</v>
       </c>
@@ -1689,25 +1692,48 @@
         <v>2023</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C50" s="1">
+        <v>2023</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I50" s="1" t="s">
         <v>96</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F15" r:id="rId1" xr:uid="{9FC96BBB-E6A2-B445-A8BC-D5C33750B0BD}"/>
-    <hyperlink ref="G19" r:id="rId2" xr:uid="{67F88AC2-2CFE-FA4A-92CE-3F4ED8A9D293}"/>
-    <hyperlink ref="D19" r:id="rId3" xr:uid="{67C34580-503B-904D-B129-0E6417699D1E}"/>
-    <hyperlink ref="G18" r:id="rId4" xr:uid="{A592B2D5-64F7-D24F-B190-D84D29F1718E}"/>
-    <hyperlink ref="D18" r:id="rId5" xr:uid="{D42F41A6-5D73-B344-9F8A-BD6292306C55}"/>
+    <hyperlink ref="F16" r:id="rId1" xr:uid="{9FC96BBB-E6A2-B445-A8BC-D5C33750B0BD}"/>
+    <hyperlink ref="G20" r:id="rId2" xr:uid="{67F88AC2-2CFE-FA4A-92CE-3F4ED8A9D293}"/>
+    <hyperlink ref="D20" r:id="rId3" xr:uid="{67C34580-503B-904D-B129-0E6417699D1E}"/>
+    <hyperlink ref="G19" r:id="rId4" xr:uid="{A592B2D5-64F7-D24F-B190-D84D29F1718E}"/>
+    <hyperlink ref="D19" r:id="rId5" xr:uid="{D42F41A6-5D73-B344-9F8A-BD6292306C55}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/cv_entries.xlsx
+++ b/data/cv_entries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/Resume/wright_cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898A46CE-AE36-F348-8968-237590554C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D23AADE-F79F-2C4A-B901-BF42EB2D0FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25780" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{C4D43CE4-6AA2-144D-A346-CE8B2E756935}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{C4D43CE4-6AA2-144D-A346-CE8B2E756935}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="128">
   <si>
     <t>type</t>
   </si>
@@ -400,6 +400,24 @@
   </si>
   <si>
     <t xml:space="preserve">Translate high-level project goals into actionable work plans, ensuring that every phase moves forward smoothly and on schedule. Oversee project implementation, anticipating resource needs, troubleshooting challenges, and making strategic adjustments when necessary. Manage relationships with partners and stakeholders, ensuring their needs are met through clear communication and collaboration. Delegate effectively, solve problems proactively, and keep projects on track from start to finish. Focus on maintaining momentum, driving results, and continuously improving processes to deliver successful outcomes. </t>
+  </si>
+  <si>
+    <t>Lake, Kern, Siskiyou, Sutter, Yuba, and Ventura Counties, CA</t>
+  </si>
+  <si>
+    <t>Butte, Plumas, and Santa Cruz County Offices of Education, CA</t>
+  </si>
+  <si>
+    <t>Lead Project Manager for ASR's consulting work with six California First 5 County Commissions. Support Commission efforts related to annual program evaluation, including data collection, management, analysis, and reporting. Facilitate strategic planning initiatives, including the design and distribution of surveys via Qualtrics and the collection of qualitative data through focus groups and key informant interviews. Spearhead special projects, including the design, implementation, and analysis of key surveys such as the First 5 Kern Developmental Screening Gap Assessment and the Parent/Guardian Survey and Vaccination and Immunization for the Kery County Immunization Coalition.</t>
+  </si>
+  <si>
+    <t>Serve as Lead Project Manager for ASR's consulting work with three California County Offices of Education. Oversee the design and execution of Needs Assessments and parent surveys focused on perceptions, barriers, and priorities related to child care availability, priorities, and barriers to access.</t>
+  </si>
+  <si>
+    <t>https://jim-asr.shinyapps.io/SantaCruz_UPK_Survey/</t>
+  </si>
+  <si>
+    <t>https://jim-asr.shinyapps.io/KernCountyImmunizationCoalition_SurveyResults/</t>
   </si>
 </sst>
 </file>
@@ -767,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8559F42B-99AA-F44B-B1DC-6C413C767572}">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -869,7 +887,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1505,27 +1523,27 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="187" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B42" s="1">
-        <v>2023</v>
-      </c>
-      <c r="C42" s="1">
         <v>2024</v>
       </c>
+      <c r="C42" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D42" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>95</v>
+        <v>124</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="238" x14ac:dyDescent="0.2">
@@ -1533,25 +1551,25 @@
         <v>86</v>
       </c>
       <c r="B43" s="1">
-        <v>2023</v>
-      </c>
-      <c r="C43" s="1">
         <v>2024</v>
       </c>
+      <c r="C43" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D43" s="1" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="255" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="187" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
@@ -1562,19 +1580,16 @@
         <v>2024</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="238" x14ac:dyDescent="0.2">
@@ -1582,54 +1597,51 @@
         <v>86</v>
       </c>
       <c r="B45" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C45" s="1">
         <v>2024</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="153" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="255" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B46" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C46" s="1">
         <v>2024</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="289" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="238" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>86</v>
       </c>
@@ -1640,48 +1652,48 @@
         <v>2024</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="187" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="153" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B48" s="1">
         <v>2022</v>
       </c>
       <c r="C48" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="323" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="289" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>86</v>
       </c>
@@ -1689,24 +1701,27 @@
         <v>2022</v>
       </c>
       <c r="C49" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>98</v>
+        <v>109</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="187" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="B50" s="1">
         <v>2022</v>
@@ -1715,15 +1730,64 @@
         <v>2023</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F50" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="323" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2023</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2023</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I52" s="1" t="s">
         <v>96</v>
       </c>
     </row>
